--- a/protocol_andy_NoChr_20160502.xlsx
+++ b/protocol_andy_NoChr_20160502.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21810" yWindow="3135" windowWidth="16380" windowHeight="8205"/>
+    <workbookView xWindow="23670" yWindow="3135" windowWidth="16380" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/protocol_andy_NoChr_20160502.xlsx
+++ b/protocol_andy_NoChr_20160502.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23670" yWindow="3135" windowWidth="16380" windowHeight="8205"/>
+    <workbookView xWindow="24600" yWindow="3135" windowWidth="16380" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,8 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>685000</v>
+        <f>13*60*1000</f>
+        <v>780000</v>
       </c>
     </row>
   </sheetData>
